--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H2">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I2">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J2">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039174</v>
+        <v>0.1003616666666667</v>
       </c>
       <c r="N2">
-        <v>0.117522</v>
+        <v>0.301085</v>
       </c>
       <c r="O2">
-        <v>0.01851944066946197</v>
+        <v>0.0420091445250749</v>
       </c>
       <c r="P2">
-        <v>0.01851944066946197</v>
+        <v>0.04200914452507489</v>
       </c>
       <c r="Q2">
-        <v>0.021524075952</v>
+        <v>0.1869982063388889</v>
       </c>
       <c r="R2">
-        <v>0.193716683568</v>
+        <v>1.68298385705</v>
       </c>
       <c r="S2">
-        <v>0.007089868890711115</v>
+        <v>0.02548870314089755</v>
       </c>
       <c r="T2">
-        <v>0.007089868890711115</v>
+        <v>0.02548870314089755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H3">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.198111</v>
       </c>
       <c r="O3">
-        <v>0.6615499020465588</v>
+        <v>0.5857450611332571</v>
       </c>
       <c r="P3">
-        <v>0.6615499020465587</v>
+        <v>0.585745061133257</v>
       </c>
       <c r="Q3">
-        <v>0.7688812309093332</v>
+        <v>2.607367444447778</v>
       </c>
       <c r="R3">
-        <v>6.919931078183999</v>
+        <v>23.46630700003</v>
       </c>
       <c r="S3">
-        <v>0.2532637002318897</v>
+        <v>0.3553960012339923</v>
       </c>
       <c r="T3">
-        <v>0.2532637002318896</v>
+        <v>0.3553960012339922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H4">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6352276666666666</v>
+        <v>0.7630573333333333</v>
       </c>
       <c r="N4">
-        <v>1.905683</v>
+        <v>2.289172</v>
       </c>
       <c r="O4">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399032</v>
       </c>
       <c r="P4">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399031</v>
       </c>
       <c r="Q4">
-        <v>0.3490245709946666</v>
+        <v>1.421761489284444</v>
       </c>
       <c r="R4">
-        <v>3.141221138952</v>
+        <v>12.79585340356</v>
       </c>
       <c r="S4">
-        <v>0.1149660711803495</v>
+        <v>0.1937925354848456</v>
       </c>
       <c r="T4">
-        <v>0.1149660711803495</v>
+        <v>0.1937925354848455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H5">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I5">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J5">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04151866666666667</v>
+        <v>0.126254</v>
       </c>
       <c r="N5">
-        <v>0.124556</v>
+        <v>0.378762</v>
       </c>
       <c r="O5">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176502</v>
       </c>
       <c r="P5">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176501</v>
       </c>
       <c r="Q5">
-        <v>0.02281234836266666</v>
+        <v>0.2352419238066666</v>
       </c>
       <c r="R5">
-        <v>0.205311135264</v>
+        <v>2.11717731426</v>
       </c>
       <c r="S5">
-        <v>0.00751421614294697</v>
+        <v>0.03206454050866911</v>
       </c>
       <c r="T5">
-        <v>0.007514216142946969</v>
+        <v>0.03206454050866911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H6">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.039174</v>
+        <v>0.1003616666666667</v>
       </c>
       <c r="N6">
-        <v>0.117522</v>
+        <v>0.301085</v>
       </c>
       <c r="O6">
-        <v>0.01851944066946197</v>
+        <v>0.0420091445250749</v>
       </c>
       <c r="P6">
-        <v>0.01851944066946197</v>
+        <v>0.04200914452507489</v>
       </c>
       <c r="Q6">
-        <v>0.008850751573999999</v>
+        <v>0.0987757850638889</v>
       </c>
       <c r="R6">
-        <v>0.079656764166</v>
+        <v>0.888982065575</v>
       </c>
       <c r="S6">
-        <v>0.002915371065585015</v>
+        <v>0.01346358723056363</v>
       </c>
       <c r="T6">
-        <v>0.002915371065585015</v>
+        <v>0.01346358723056362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H7">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.198111</v>
       </c>
       <c r="O7">
-        <v>0.6615499020465588</v>
+        <v>0.5857450611332571</v>
       </c>
       <c r="P7">
-        <v>0.6615499020465587</v>
+        <v>0.585745061133257</v>
       </c>
       <c r="Q7">
-        <v>0.3161658033481111</v>
+        <v>1.377257949782778</v>
       </c>
       <c r="R7">
-        <v>2.845492230132999</v>
+        <v>12.395321548045</v>
       </c>
       <c r="S7">
-        <v>0.1041426400122035</v>
+        <v>0.1877265013271625</v>
       </c>
       <c r="T7">
-        <v>0.1041426400122034</v>
+        <v>0.1877265013271624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H8">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I8">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J8">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6352276666666666</v>
+        <v>0.7630573333333333</v>
       </c>
       <c r="N8">
-        <v>1.905683</v>
+        <v>2.289172</v>
       </c>
       <c r="O8">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399032</v>
       </c>
       <c r="P8">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399031</v>
       </c>
       <c r="Q8">
-        <v>0.1435197393832222</v>
+        <v>0.7509997557044444</v>
       </c>
       <c r="R8">
-        <v>1.291677654449</v>
+        <v>6.75899780134</v>
       </c>
       <c r="S8">
-        <v>0.04727432377237665</v>
+        <v>0.10236467079982</v>
       </c>
       <c r="T8">
-        <v>0.04727432377237665</v>
+        <v>0.1023646707998199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H9">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I9">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J9">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04151866666666667</v>
+        <v>0.126254</v>
       </c>
       <c r="N9">
-        <v>0.124556</v>
+        <v>0.378762</v>
       </c>
       <c r="O9">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176502</v>
       </c>
       <c r="P9">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176501</v>
       </c>
       <c r="Q9">
-        <v>0.009380492274222222</v>
+        <v>0.1242589763766667</v>
       </c>
       <c r="R9">
-        <v>0.08442443046799999</v>
+        <v>1.11833078739</v>
       </c>
       <c r="S9">
-        <v>0.003089863671865755</v>
+        <v>0.01693706171553794</v>
       </c>
       <c r="T9">
-        <v>0.003089863671865754</v>
+        <v>0.01693706171553794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H10">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.039174</v>
+        <v>0.1003616666666667</v>
       </c>
       <c r="N10">
-        <v>0.117522</v>
+        <v>0.301085</v>
       </c>
       <c r="O10">
-        <v>0.01851944066946197</v>
+        <v>0.0420091445250749</v>
       </c>
       <c r="P10">
-        <v>0.01851944066946197</v>
+        <v>0.04200914452507489</v>
       </c>
       <c r="Q10">
-        <v>0.025848193478</v>
+        <v>0.02242665076388889</v>
       </c>
       <c r="R10">
-        <v>0.232633741302</v>
+        <v>0.201839856875</v>
       </c>
       <c r="S10">
-        <v>0.008514200713165842</v>
+        <v>0.003056854153613716</v>
       </c>
       <c r="T10">
-        <v>0.008514200713165842</v>
+        <v>0.003056854153613716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H11">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I11">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J11">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.198111</v>
       </c>
       <c r="O11">
-        <v>0.6615499020465588</v>
+        <v>0.5857450611332571</v>
       </c>
       <c r="P11">
-        <v>0.6615499020465587</v>
+        <v>0.585745061133257</v>
       </c>
       <c r="Q11">
-        <v>0.9233469935001111</v>
+        <v>0.3127009624027778</v>
       </c>
       <c r="R11">
-        <v>8.310122941501</v>
+        <v>2.814308661625</v>
       </c>
       <c r="S11">
-        <v>0.3041435618024657</v>
+        <v>0.04262255857210234</v>
       </c>
       <c r="T11">
-        <v>0.3041435618024657</v>
+        <v>0.04262255857210233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H12">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I12">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J12">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6352276666666666</v>
+        <v>0.7630573333333333</v>
       </c>
       <c r="N12">
-        <v>1.905683</v>
+        <v>2.289172</v>
       </c>
       <c r="O12">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399032</v>
       </c>
       <c r="P12">
-        <v>0.3003027795076862</v>
+        <v>0.3193986993399031</v>
       </c>
       <c r="Q12">
-        <v>0.4191424830392222</v>
+        <v>0.1705115199444444</v>
       </c>
       <c r="R12">
-        <v>3.772282347353</v>
+        <v>1.5346036795</v>
       </c>
       <c r="S12">
-        <v>0.1380623845549601</v>
+        <v>0.02324149305523762</v>
       </c>
       <c r="T12">
-        <v>0.1380623845549601</v>
+        <v>0.02324149305523761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H13">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I13">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J13">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04151866666666667</v>
+        <v>0.126254</v>
       </c>
       <c r="N13">
-        <v>0.124556</v>
+        <v>0.378762</v>
       </c>
       <c r="O13">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176502</v>
       </c>
       <c r="P13">
-        <v>0.019627877776293</v>
+        <v>0.05284709500176501</v>
       </c>
       <c r="Q13">
-        <v>0.02739527566622222</v>
+        <v>0.02821250841666667</v>
       </c>
       <c r="R13">
-        <v>0.246557480996</v>
+        <v>0.25391257575</v>
       </c>
       <c r="S13">
-        <v>0.009023797961480274</v>
+        <v>0.003845492777557961</v>
       </c>
       <c r="T13">
-        <v>0.009023797961480272</v>
+        <v>0.00384549277755796</v>
       </c>
     </row>
   </sheetData>
